--- a/Listas de precios/minorista/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/Listas de precios/minorista/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1157,20 +1157,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/Listas de precios/minorista/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1157,20 +1157,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/Listas de precios/minorista/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1157,20 +1157,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
